--- a/medicine/Enfance/Lisi_Harrison/Lisi_Harrison.xlsx
+++ b/medicine/Enfance/Lisi_Harrison/Lisi_Harrison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elyse E. "Lisi" Harrison, née Elyse E. Gottlieb le 29 juillet 1970 à Toronto en Ontario, est une auteure canadienne de littérature pour jeunes adultes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elyse E. "Lisi" Harrison, née Elyse E. Gottlieb le 29 juillet 1970 à Toronto en Ontario, est une auteure canadienne de littérature pour jeunes adultes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisi Harrison est née à Toronto au Canada de Shaila et Ken Gottlieb. Jusqu’à la neuvième classe, elle a été dans une école hébraïque local, ensuite elle est entrée au Forest Hill Collegiate, une grande école publique. À l’âge de 18 ans, elle déménage à Montréal pour devenir un grand cinéaste à l’Université McGill.
 Après deux ans à McGill, elle part avec l’intention de devenir écrivain au lieu de réalisateur.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Clique - La Bande des garces
-Les Filles, Pocket jeunesse, 2005 ((en) The Clique, 2004)
+          <t>Série La Clique - La Bande des garces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Filles, Pocket jeunesse, 2005 ((en) The Clique, 2004)
 Amies à jamais, Pocket jeunesse, 2005 ((en) Best Friends for Never, 2004)
 La Revanche des pestes, Pocket jeunesse, 2006 ((en) Revenge of the Wannabes, 2005)
 Les allumeuses contre-attaquent, Pocket jeunesse, 2006 ((en) The Invasion of the Boy Snatchers, 2005)
@@ -563,25 +582,161 @@
 (en) My Little Phony, 2010
 (en) A Tale of Two Pretties, 2011
 (en) Charmed and Dangerous : The Clique Prequel, 2000
-(en) Cliquetionary : The Wit and Wisdom of The Clique, 2009
-Série La Clique - Collection estivale
-Massie, Ada, 2010 ((en) Massie, 2008)
+(en) Cliquetionary : The Wit and Wisdom of The Clique, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série La Clique - Collection estivale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Massie, Ada, 2010 ((en) Massie, 2008)
 Dylan, AdA, 2010 ((en) Dylan, 2008)
 Alicia, AdA, 2010 ((en) Alicia, 2008)
 Kristen, AdA, 2010 ((en) Kristen, 2008)
-Claire, AdA, 2010 ((en) Claire, 2008)
-Série Alphas
-(en) Alphas, 2009
+Claire, AdA, 2010 ((en) Claire, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Alphas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Alphas, 2009
 (en) Movers and Fakers, 2010
 (en) Belle of the Brawl, 2010
-(en) Top of the Feud Chain, 2011
-Série Monster High
-Monster High, Castelmore, 2011 ((en) Monster High, 2010)
+(en) Top of the Feud Chain, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Monster High</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Monster High, Castelmore, 2011 ((en) Monster High, 2010)
 Radicalement vôtre, Castelmore, 2011 ((en) The Ghoul Next Door, 2011)
 Quand on parle du loup..., Castelmore, 2011 ((en) Where There's A Wolf, 2011)
-De vampire en pire, Castelmore, 2012 ((en) Back and Deader than Ever, 2012)
-Romans indépendants
-(en) The Pack, 2021</t>
+De vampire en pire, Castelmore, 2012 ((en) Back and Deader than Ever, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lisi_Harrison</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The Pack, 2021</t>
         </is>
       </c>
     </row>
